--- a/biology/Zoologie/Henneguya_zschokkei/Henneguya_zschokkei.xlsx
+++ b/biology/Zoologie/Henneguya_zschokkei/Henneguya_zschokkei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henneguya zschokkei, aussi connu sous le synonyme de Henneguya salminicola, est une espèce de myxozoaires, des animaux parasites de l'embranchement des cnidaires, comme les méduses et les coraux. 
-Si beaucoup continuent à traiter H. salminicola (Amérique du Nord) comme une espèce distincte, des scientifiques ont montré qu'il s'agissait de la même espèce que H. zschokkei (Scandinavie)[4],[5].
-Ce parasite, de très petite taille, compte moins de dix cellules. Il infecte plusieurs espèces de salmonidés. Il y forme de petits points blancs dans la chair ce qui pose des problèmes aux pisciculteurs mais qui n'est pas dangereux pour l'être humain[2],[6].
-C'est le premier animal connu à ne pas avoir de génome mitochondrial, ce qui signifie qu'il a perdu sa propre aptitude à la respiration aérobie. Il a aussi perdu des gènes du noyau impliqués dans la respiration aérobie ou la réplication du génome mitochondrial. On ignore encore comment cet animal se procure son énergie : peut-être, des cellules du poisson qu'il parasite ou alors s'est-il adapté à une respiration sans oxygène comme les organismes anaérobies unicellulaires[6],[7]. À titre de comparaison, l'espèce voisine Myxobolus squamalis a conservé son génome mitochondrial[7].
+Si beaucoup continuent à traiter H. salminicola (Amérique du Nord) comme une espèce distincte, des scientifiques ont montré qu'il s'agissait de la même espèce que H. zschokkei (Scandinavie),.
+Ce parasite, de très petite taille, compte moins de dix cellules. Il infecte plusieurs espèces de salmonidés. Il y forme de petits points blancs dans la chair ce qui pose des problèmes aux pisciculteurs mais qui n'est pas dangereux pour l'être humain,.
+C'est le premier animal connu à ne pas avoir de génome mitochondrial, ce qui signifie qu'il a perdu sa propre aptitude à la respiration aérobie. Il a aussi perdu des gènes du noyau impliqués dans la respiration aérobie ou la réplication du génome mitochondrial. On ignore encore comment cet animal se procure son énergie : peut-être, des cellules du poisson qu'il parasite ou alors s'est-il adapté à une respiration sans oxygène comme les organismes anaérobies unicellulaires,. À titre de comparaison, l'espèce voisine Myxobolus squamalis a conservé son génome mitochondrial.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Parasitisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henneguya salminicola forme des kystes, d'environ 10 mm de diamètre, contenant des milliers de spores dans les muscles et sous la peau des saumons. Les spores sont ovales (9–11 × 7–9 µm) et présentent deux capsules polaires à l'avant et deux longs appendices caudaux (26 à 40 µm). Lors du filetage des poissons, il en sort un liquide blanc et crémeux ce qui fait que les éleveurs parlent de maladie de la chair laiteuse (ou myxosporidiose des muscles des saumons du Pacifique). Les saumons sont infectés lorsqu'ils sont jeunes et vivent en eau douce. Les parasites passent par le système circulatoire avant d'atteindre les muscles et de se transformer en spore. Bien que les spores produisent une protéase qui hydrolyse le muscle et le liquéfie, le parasite est bien toléré par le poisson et peut y vivre longtemps. Cependant, la croissance est ralentie et des organes sont déplacés. Lorsque le saumon se décompose après avoir frayé, les spores sont libérées dans l'eau et sont ingérées par des vers qui servent d'hôtes intermédiaires. Henneguya salminicola est l'espèce du genre Henneguya la plus courante en Alaska[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henneguya salminicola forme des kystes, d'environ 10 mm de diamètre, contenant des milliers de spores dans les muscles et sous la peau des saumons. Les spores sont ovales (9–11 × 7–9 µm) et présentent deux capsules polaires à l'avant et deux longs appendices caudaux (26 à 40 µm). Lors du filetage des poissons, il en sort un liquide blanc et crémeux ce qui fait que les éleveurs parlent de maladie de la chair laiteuse (ou myxosporidiose des muscles des saumons du Pacifique). Les saumons sont infectés lorsqu'ils sont jeunes et vivent en eau douce. Les parasites passent par le système circulatoire avant d'atteindre les muscles et de se transformer en spore. Bien que les spores produisent une protéase qui hydrolyse le muscle et le liquéfie, le parasite est bien toléré par le poisson et peut y vivre longtemps. Cependant, la croissance est ralentie et des organes sont déplacés. Lorsque le saumon se décompose après avoir frayé, les spores sont libérées dans l'eau et sont ingérées par des vers qui servent d'hôtes intermédiaires. Henneguya salminicola est l'espèce du genre Henneguya la plus courante en Alaska,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les hôtes connus de Henneguya zschokkei incluent[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les hôtes connus de Henneguya zschokkei incluent :
 Oncorhynchus gorbuscha (saumon rose à bosse)
 Oncorhynchus keta (saumon kéta)
 Oncorhynchus kisutch (saumon coho)
